--- a/Schedule_literature.xlsx
+++ b/Schedule_literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2EFFC-9D69-48B1-88D6-A7C841722512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADBC372-832B-438E-95A2-55BE259FB725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{692D2544-D703-41FB-B709-05289A2C8FE8}"/>
   </bookViews>
@@ -156,30 +156,30 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +509,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,13 +571,13 @@
       <c r="D2" s="1">
         <v>44514</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -592,13 +592,13 @@
       <c r="D3" s="1">
         <v>44521</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -613,7 +613,7 @@
       <c r="D4" s="1">
         <v>44528</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8"/>
@@ -634,13 +634,13 @@
       <c r="D5" s="1">
         <v>44535</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -655,11 +655,13 @@
       <c r="D6" s="1">
         <v>44542</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -674,13 +676,11 @@
       <c r="D7" s="1">
         <v>44549</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -695,11 +695,13 @@
       <c r="D8" s="1">
         <v>44556</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -714,12 +716,7 @@
       <c r="D9" s="1">
         <v>44563</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -736,14 +733,7 @@
       <c r="D10" s="1">
         <v>44570</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -758,21 +748,18 @@
       <c r="D11" s="1">
         <v>44577</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E10:I11"/>
+  <mergeCells count="9">
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
